--- a/measures_table.xlsx
+++ b/measures_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline-my.sharepoint.com/personal/53643_icf_com/Documents/Work/work_2022/nscps_district_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{CE199AF8-4749-DB4B-93C2-CA7E61019BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AE23740-E729-4D47-BA27-41D7CB4C9B12}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{CE199AF8-4749-DB4B-93C2-CA7E61019BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D22715CB-F9D9-DE4B-832E-9634B8CAACC5}"/>
   <bookViews>
-    <workbookView xWindow="11440" yWindow="1720" windowWidth="28040" windowHeight="17440" xr2:uid="{BFC79A96-BD20-1540-9AD9-5F6C80D53AF6}"/>
+    <workbookView xWindow="6520" yWindow="1720" windowWidth="28040" windowHeight="17440" xr2:uid="{BFC79A96-BD20-1540-9AD9-5F6C80D53AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>Encouraged replacing, upgrading, maintaining, or inspecting HVAC systems.</t>
   </si>
   <si>
-    <t>Sum of strategies having marginal (p-value &lt; .10) association with change in case rates.</t>
-  </si>
-  <si>
     <t>These measures were derived from the National Center for Education Statistics (NCES) for the 2020-2021 school year, and when possible, missing values were filled with estimates from the 2019-2020 school year. See next section for description of approach to ameliorate potential of issues with respect to multicolinearity.</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Study enrollment composition</t>
+  </si>
+  <si>
+    <t>Sum of strategies having marginal association with change in case rates (calculation further described below).</t>
   </si>
 </sst>
 </file>
@@ -202,9 +202,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -523,7 +522,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,160 +536,160 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
+      <c r="A2" t="s">
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
+      <c r="A3" t="s">
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
+      <c r="A4" t="s">
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
+      <c r="A5" t="s">
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
+      <c r="A6" t="s">
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
+      <c r="A7" t="s">
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
+      <c r="A8" t="s">
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
+      <c r="A9" t="s">
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
+      <c r="A10" t="s">
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
+      <c r="A11" t="s">
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>40</v>
+      <c r="A16" t="s">
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
